--- a/doc/test/SemesterEnrollments.xlsx
+++ b/doc/test/SemesterEnrollments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannycollier/sites/enrollchat/doc/backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannycollier/sites/enrollchat/doc/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10585,7 +10585,7 @@
   <dimension ref="A1:N1500"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="N421" sqref="A3:N1498"/>
+      <selection activeCell="L419" sqref="L419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28846,7 +28846,7 @@
         <v>19</v>
       </c>
       <c r="L417" s="7">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="M417" s="7">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>25</v>
       </c>
       <c r="L421" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M421" s="7">
         <v>0</v>

--- a/doc/test/SemesterEnrollments.xlsx
+++ b/doc/test/SemesterEnrollments.xlsx
@@ -10584,8 +10584,8 @@
   </sheetPr>
   <dimension ref="A1:N1500"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="L419" sqref="L419"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A651" workbookViewId="0">
+      <selection activeCell="Q659" sqref="Q659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28984,7 +28984,7 @@
         <v>50</v>
       </c>
       <c r="N420" s="8">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="421" spans="1:14" ht="44" x14ac:dyDescent="0.15">
@@ -39497,10 +39497,10 @@
         <v>23</v>
       </c>
       <c r="M659" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N659" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="660" spans="1:14" ht="44" x14ac:dyDescent="0.15">
